--- a/conf/Template/roomConfig.xlsx
+++ b/conf/Template/roomConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub_XSL\excelToyaml\conf\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76EA9C4-DFA8-40DA-8FE4-D562DD6622F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018F5660-8CD2-48F4-9652-6D0CFF0E8780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{DB38FB6E-789F-420E-ADC9-8996B1393EEC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{DB38FB6E-789F-420E-ADC9-8996B1393EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="四人斗地主" sheetId="4" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D23FF-628E-42B8-AB59-50730F62FDCA}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EDBE06-CBFB-4671-AE1C-17491519EF45}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1663,7 +1663,7 @@
         <v>5178</v>
       </c>
       <c r="C2" s="1">
-        <v>38888</v>
+        <v>38150</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -1716,7 +1716,7 @@
         <v>5178</v>
       </c>
       <c r="C3" s="1">
-        <v>38888</v>
+        <v>38150</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -1769,7 +1769,7 @@
         <v>5178</v>
       </c>
       <c r="C4" s="1">
-        <v>38888</v>
+        <v>38150</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -1817,6 +1817,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
